--- a/public/template/example.xlsx
+++ b/public/template/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\waterdistrict\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A97C8-42A0-4F80-AD98-B42AB70D1D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B0A78-7894-4ACB-A7A8-2365F4402178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>APPLICATION FOR LEAVE</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.   DATE OF FILING  ______________                         </t>
-  </si>
-  <si>
-    <t>_____________________________________________</t>
   </si>
   <si>
     <t>________________________________________</t>
@@ -519,6 +516,9 @@
   <si>
     <t>{{REASON}}</t>
   </si>
+  <si>
+    <t>______________________________________________</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -651,6 +651,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -962,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1070,6 +1077,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1082,6 +1092,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,49 +1149,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2478,8 +2497,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2495,57 +2514,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="A1" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="49"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="A2" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="1"/>
       <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="22"/>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2555,14 +2574,14 @@
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,7 +2592,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2594,21 +2613,21 @@
     </row>
     <row r="8" spans="1:14" s="37" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2638,14 +2657,14 @@
       <c r="A11" s="8"/>
       <c r="B11" s="51"/>
       <c r="C11" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="47"/>
       <c r="G11" s="2"/>
       <c r="H11" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="1"/>
@@ -2667,7 +2686,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="51"/>
       <c r="C13" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
@@ -2696,7 +2715,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="51"/>
       <c r="C15" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -2704,7 +2723,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="51"/>
       <c r="I15" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -2724,7 +2743,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="51"/>
       <c r="C17" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
@@ -2752,7 +2771,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="52"/>
       <c r="C19" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -2760,7 +2779,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="54"/>
       <c r="I19" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -2780,7 +2799,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="52"/>
       <c r="C21" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
@@ -2788,7 +2807,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="51"/>
       <c r="I21" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" s="2"/>
@@ -2813,15 +2832,15 @@
       <c r="A23" s="8"/>
       <c r="B23" s="51"/>
       <c r="C23" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
       <c r="H23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="26"/>
+        <v>102</v>
+      </c>
+      <c r="I23" s="55"/>
       <c r="J23" s="1"/>
       <c r="M23" s="52"/>
     </row>
@@ -2842,7 +2861,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="51"/>
       <c r="C25" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
@@ -2875,14 +2894,14 @@
       <c r="A27" s="8"/>
       <c r="B27" s="51"/>
       <c r="C27" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
       <c r="G27" s="2"/>
       <c r="H27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="1"/>
@@ -2907,16 +2926,13 @@
       <c r="A29" s="8"/>
       <c r="B29" s="51"/>
       <c r="C29" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
       <c r="G29" s="2"/>
-      <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,12 +2951,12 @@
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="51"/>
-      <c r="C31" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
+      <c r="C31" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="2"/>
       <c r="H31" s="28" t="s">
         <v>19</v>
@@ -2969,7 +2985,7 @@
       <c r="A33" s="8"/>
       <c r="B33" s="51"/>
       <c r="C33" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
@@ -2977,7 +2993,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="54"/>
       <c r="I33" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J33" s="1"/>
       <c r="L33" s="2"/>
@@ -2999,7 +3015,7 @@
       <c r="A35" s="8"/>
       <c r="B35" s="51"/>
       <c r="C35" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3051,7 +3067,7 @@
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3078,15 +3094,15 @@
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="2"/>
       <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="H41" s="51"/>
       <c r="I41" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J41" s="1"/>
     </row>
@@ -3112,7 +3128,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="9"/>
       <c r="G43" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" s="26"/>
       <c r="J43" s="1"/>
@@ -3130,11 +3146,11 @@
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="72"/>
       <c r="E45" s="2"/>
       <c r="F45" s="9"/>
       <c r="G45" s="2"/>
@@ -3174,11 +3190,11 @@
     </row>
     <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="72"/>
       <c r="E48" s="32"/>
       <c r="F48" s="9"/>
       <c r="G48" s="1"/>
@@ -3193,25 +3209,25 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="70" t="s">
+      <c r="G49" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="66"/>
-      <c r="I49" s="67"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="65"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" s="37" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="69"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="36"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3245,7 +3261,7 @@
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="C53" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -3274,16 +3290,16 @@
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="2"/>
       <c r="H55" s="51"/>
       <c r="I55" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -3291,78 +3307,72 @@
       <c r="A56" s="8"/>
       <c r="B56" s="2"/>
       <c r="C56" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="9"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="I56" s="71"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="2"/>
       <c r="C57" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="9"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="I57" s="71"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="2"/>
       <c r="C58" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="9"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="I58" s="71"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="2"/>
       <c r="G59" s="8"/>
       <c r="H59" s="2"/>
       <c r="I59" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="39"/>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
       <c r="F60" s="40"/>
-      <c r="G60" s="65" t="s">
+      <c r="G60" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="66"/>
-      <c r="I60" s="67"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="65"/>
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3385,53 +3395,53 @@
       <c r="A62" s="8"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="74"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="73"/>
+      <c r="I63" s="74"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="73"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="57"/>
+      <c r="A65" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="58"/>
     </row>
     <row r="66" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
@@ -3445,63 +3455,63 @@
       <c r="I66" s="29"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
     </row>
     <row r="68" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
     </row>
     <row r="69" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
     </row>
     <row r="70" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
     </row>
     <row r="71" spans="1:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="20">
+  <mergeCells count="23">
     <mergeCell ref="I62:I64"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="C59:E59"/>
@@ -3516,6 +3526,9 @@
     <mergeCell ref="B50:I50"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:I5"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="A65:I65"/>
     <mergeCell ref="A67:I67"/>
     <mergeCell ref="A68:I68"/>
@@ -3548,135 +3561,135 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="C1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="G1" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="D2" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>76</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>79</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>94</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/example.xlsx
+++ b/public/template/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\waterdistrict\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B0A78-7894-4ACB-A7A8-2365F4402178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94395280-4E11-4D21-B77E-AD0B871A465A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>APPLICATION FOR LEAVE</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>1.   OFFICE/DEPARTMENT</t>
-  </si>
-  <si>
-    <t>As of _______________________</t>
   </si>
   <si>
     <t xml:space="preserve">6.D  COMMUTATION </t>
@@ -524,10 +521,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -645,19 +643,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -969,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,9 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,6 +1062,57 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,68 +1125,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,73 +1565,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1016001</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>150812</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="TextBox 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1317626" y="8850313"/>
-          <a:ext cx="1785937" cy="198437"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2497,8 +2424,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -2524,12 +2451,12 @@
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
       <c r="H1" s="61"/>
-      <c r="I1" s="49"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -2542,17 +2469,17 @@
       <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="1"/>
       <c r="N3" s="43"/>
     </row>
@@ -2634,7 +2561,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="47" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="12"/>
@@ -2655,13 +2582,13 @@
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="2"/>
       <c r="H11" s="28" t="s">
         <v>30</v>
@@ -2673,10 +2600,10 @@
     <row r="12" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="9"/>
@@ -2684,16 +2611,16 @@
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1"/>
@@ -2702,38 +2629,38 @@
     <row r="14" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="47"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47" t="s">
-        <v>62</v>
+      <c r="H15" s="50"/>
+      <c r="I15" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="9"/>
@@ -2741,13 +2668,13 @@
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="2"/>
       <c r="H17" s="28" t="s">
         <v>18</v>
@@ -2758,10 +2685,10 @@
     <row r="18" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="9"/>
@@ -2769,45 +2696,45 @@
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="47" t="s">
-        <v>56</v>
+      <c r="H19" s="53"/>
+      <c r="I19" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="47"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47" t="s">
-        <v>61</v>
+      <c r="H21" s="50"/>
+      <c r="I21" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" s="2"/>
@@ -2816,10 +2743,10 @@
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="9"/>
@@ -2830,27 +2757,27 @@
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
       <c r="H23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
-      <c r="M23" s="52"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="24" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="2"/>
       <c r="I24" s="26"/>
       <c r="J24" s="1"/>
@@ -2859,13 +2786,13 @@
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="2"/>
       <c r="H25" s="28" t="s">
         <v>21</v>
@@ -2878,10 +2805,10 @@
     <row r="26" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="26"/>
@@ -2892,16 +2819,16 @@
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="2"/>
       <c r="H27" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="1"/>
@@ -2911,10 +2838,10 @@
     <row r="28" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="2"/>
       <c r="I28" s="26"/>
       <c r="J28" s="1"/>
@@ -2924,24 +2851,24 @@
     </row>
     <row r="29" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="79"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="2"/>
       <c r="I30" s="26"/>
       <c r="J30" s="1"/>
@@ -2950,13 +2877,13 @@
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="2"/>
       <c r="H31" s="28" t="s">
         <v>19</v>
@@ -2969,10 +2896,10 @@
     <row r="32" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="9"/>
@@ -2983,16 +2910,16 @@
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="47" t="s">
+      <c r="H33" s="53"/>
+      <c r="I33" s="46" t="s">
         <v>31</v>
       </c>
       <c r="J33" s="1"/>
@@ -3008,21 +2935,21 @@
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="47"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="46" t="s">
-        <v>55</v>
+      <c r="B35" s="50"/>
+      <c r="C35" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="47" t="s">
+      <c r="H35" s="50"/>
+      <c r="I35" s="46" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="1"/>
@@ -3030,7 +2957,7 @@
     <row r="36" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="46"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
@@ -3041,7 +2968,7 @@
     <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="46"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="9"/>
@@ -3067,15 +2994,15 @@
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="9"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="47" t="s">
+      <c r="H39" s="50"/>
+      <c r="I39" s="46" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="1"/>
@@ -3089,19 +3016,19 @@
       <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="47"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="2"/>
       <c r="F41" s="9"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="47" t="s">
+      <c r="H41" s="50"/>
+      <c r="I41" s="46" t="s">
         <v>29</v>
       </c>
       <c r="J41" s="1"/>
@@ -3128,7 +3055,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="9"/>
       <c r="G43" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" s="26"/>
       <c r="J43" s="1"/>
@@ -3147,15 +3074,15 @@
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="31"/>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="72"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="2"/>
       <c r="F45" s="9"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="47" t="s">
+      <c r="H45" s="50"/>
+      <c r="I45" s="46" t="s">
         <v>1</v>
       </c>
       <c r="J45" s="1"/>
@@ -3169,7 +3096,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="47"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3182,8 +3109,8 @@
       <c r="E47" s="2"/>
       <c r="F47" s="9"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="47" t="s">
+      <c r="H47" s="50"/>
+      <c r="I47" s="46" t="s">
         <v>2</v>
       </c>
       <c r="J47" s="1"/>
@@ -3191,10 +3118,10 @@
     <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="33"/>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="72"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="32"/>
       <c r="F48" s="9"/>
       <c r="G48" s="1"/>
@@ -3260,14 +3187,12 @@
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="C53" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="2"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
       <c r="E53" s="2"/>
       <c r="F53" s="9"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="51"/>
+      <c r="H53" s="50"/>
       <c r="I53" s="9" t="s">
         <v>12</v>
       </c>
@@ -3297,16 +3222,16 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="51"/>
+      <c r="H55" s="50"/>
       <c r="I55" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="16"/>
@@ -3314,48 +3239,54 @@
       <c r="F56" s="9"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="71"/>
+      <c r="I56" s="80"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
       <c r="F57" s="9"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="71"/>
+      <c r="I57" s="81"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
+      <c r="D58" s="79">
+        <f>IFERROR(D56-D57, D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="79">
+        <f>IFERROR(E56-E57, E56)</f>
+        <v>0</v>
+      </c>
       <c r="F58" s="9"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="71"/>
+      <c r="I58" s="81"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
       <c r="F59" s="2"/>
       <c r="G59" s="8"/>
       <c r="H59" s="2"/>
       <c r="I59" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -3401,7 +3332,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="73"/>
+      <c r="I62" s="82"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3414,7 +3345,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="74"/>
+      <c r="I63" s="83"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3427,21 +3358,21 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="74"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="58"/>
+      <c r="A65" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
     </row>
     <row r="66" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
@@ -3455,68 +3386,69 @@
       <c r="I66" s="29"/>
     </row>
     <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
     </row>
     <row r="68" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
+      <c r="A68" s="75"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
     </row>
     <row r="69" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
     </row>
     <row r="70" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
     </row>
     <row r="71" spans="1:9" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="23">
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="C31:F31"/>
+  <mergeCells count="22">
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A70:I70"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C60:E60"/>
@@ -3526,15 +3458,13 @@
     <mergeCell ref="B50:I50"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="I56:I58"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="C31:F31"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0" header="0.5" footer="0.5"/>
@@ -3554,142 +3484,142 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.33203125" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="50"/>
-    <col min="2" max="2" width="23.88671875" style="50" customWidth="1"/>
-    <col min="3" max="16384" width="24.33203125" style="50"/>
+    <col min="1" max="1" width="24.33203125" style="49"/>
+    <col min="2" max="2" width="23.88671875" style="49" customWidth="1"/>
+    <col min="3" max="16384" width="24.33203125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="B2" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="M2" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="B3" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="50" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="B4" s="21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
